--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,59</t>
+          <t>3,73; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,88</t>
+          <t>3,46; 8,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,18</t>
+          <t>5,65; 11,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>76,26; 298,67</t>
+          <t>86,03; 295,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,13; 396,79</t>
+          <t>93,56; 429,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,52; 166,23</t>
+          <t>50,22; 164,63</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,68</t>
+          <t>0,38; 1,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,35</t>
+          <t>0,72; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,36</t>
+          <t>0,4; 2,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,62; 621,08</t>
+          <t>37,85; 634,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,96; 858,88</t>
+          <t>86,25; 780,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,14; 133,18</t>
+          <t>14,26; 131,93</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,05</t>
+          <t>-0,36; 2,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,67</t>
+          <t>-0,68; 1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,67</t>
+          <t>0,19; 2,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 975,4</t>
+          <t>-1,16; 1044,86</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 3,76</t>
+          <t>2,32; 3,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,43</t>
+          <t>1,84; 3,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,28</t>
+          <t>2,35; 4,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>126,67; 349,76</t>
+          <t>135,36; 376,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>148,74; 457,61</t>
+          <t>144,2; 431,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,1; 163,95</t>
+          <t>69,3; 164,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,66</t>
+          <t>3,65; 7,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,21</t>
+          <t>3,45; 7,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,03; 295,87</t>
+          <t>77,86; 286,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,56; 429,14</t>
+          <t>91,68; 384,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,64</t>
+          <t>0,29; 1,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,2</t>
+          <t>0,82; 2,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,85; 634,82</t>
+          <t>28,41; 574,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>86,25; 780,28</t>
+          <t>105,16; 813,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,89</t>
+          <t>-0,28; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,83</t>
+          <t>-0,47; 1,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,43; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,9</t>
+          <t>2,22; 3,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,38</t>
+          <t>1,87; 3,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>135,36; 376,75</t>
+          <t>133,86; 361,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>144,2; 431,58</t>
+          <t>142,45; 445,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA_DISC-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,65</t>
+          <t>3,47; 7,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,78</t>
+          <t>3,31; 7,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 11,98</t>
+          <t>5,49; 12,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,86; 286,84</t>
+          <t>76,26; 298,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,68; 384,66</t>
+          <t>90,13; 396,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,22; 164,63</t>
+          <t>48,52; 166,23</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,64</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,3</t>
+          <t>0,85; 2,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,31</t>
+          <t>0,44; 2,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,41; 574,36</t>
+          <t>40,62; 621,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>105,16; 813,32</t>
+          <t>87,96; 858,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 131,93</t>
+          <t>16,14; 133,18</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,11</t>
+          <t>-0,31; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,69</t>
+          <t>-0,54; 1,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,43</t>
+          <t>0,3; 2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-78,43; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1044,86</t>
+          <t>-3,88; 975,4</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,79</t>
+          <t>2,13; 3,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,39</t>
+          <t>1,9; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,34</t>
+          <t>2,35; 4,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>133,86; 361,64</t>
+          <t>126,67; 349,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>142,45; 445,48</t>
+          <t>148,74; 457,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,3; 164,73</t>
+          <t>69,1; 163,95</t>
         </is>
       </c>
     </row>
